--- a/Mass-model/Mass model/Springs.xlsx
+++ b/Mass-model/Mass model/Springs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mass-model\Mass model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ugradfs\joshpizel\win\Project\Mass-model\Mass model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Mass-model/Mass model/Springs.xlsx
+++ b/Mass-model/Mass model/Springs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Mass-model/Mass model/Springs.xlsx
+++ b/Mass-model/Mass model/Springs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ugradfs\joshpizel\win\Project\Mass-model\Mass model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\School\4thYearProject\4thYearProject\Mass-model\Mass model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{A997774F-8F07-4FEC-890F-36A636A06BD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +90,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -102,7 +102,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -149,6 +149,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -184,6 +201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,7 +369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE97340-67C8-40E9-99AE-0B91345A71A1}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -387,16 +421,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -422,16 +456,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -460,13 +494,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -498,22 +532,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -536,34 +570,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -574,13 +608,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -601,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -612,13 +646,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -650,22 +684,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -688,28 +722,28 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -726,31 +760,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -776,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>16</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -802,16 +836,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -840,19 +874,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -878,11 +912,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -890,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>16</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -916,10 +950,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>12</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>

--- a/Mass-model/Mass model/Springs.xlsx
+++ b/Mass-model/Mass model/Springs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{A997774F-8F07-4FEC-890F-36A636A06BD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{7F81EADF-8B81-4BD1-95E0-CB45416CDB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE97340-67C8-40E9-99AE-0B91345A71A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DE4D78-414E-44D6-B24F-75CEDEE78EE4}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
